--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>297600</v>
+      </c>
+      <c r="F8" s="3">
         <v>229100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>231700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>155400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>241200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>196100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>206300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>135300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>202100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>183000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>148400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>135300</v>
+      </c>
+      <c r="F9" s="3">
         <v>109000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>115400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>78700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>113400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>98600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>105700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>78100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>109000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>75400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>162300</v>
+      </c>
+      <c r="F10" s="3">
         <v>120100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>116300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>76700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>127800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>97500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>57200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>93100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>82200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>285600</v>
+      </c>
+      <c r="F17" s="3">
         <v>195100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>196700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>146600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>203600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>168000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>173100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>132000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>178200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>158300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F18" s="3">
         <v>34000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>35000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>37600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>28100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>33200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>17700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F21" s="3">
         <v>41100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>42300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>43200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>34200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>39300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>28900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>30600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>23500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8100</v>
       </c>
       <c r="K22" s="3">
         <v>8600</v>
       </c>
       <c r="L22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F23" s="3">
         <v>28400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>29900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>16500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>25200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,32 +1588,38 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-5700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F41" s="3">
         <v>34600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>38000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>80100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>52100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>71300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>60400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>53700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +2049,190 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>82700</v>
+      </c>
+      <c r="F43" s="3">
         <v>74800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>75900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>63000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>59300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>61900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>65400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>60400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>185700</v>
+      </c>
+      <c r="F44" s="3">
         <v>209200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>181400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>164300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>145400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>157700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>149400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>158500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>175100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F45" s="3">
         <v>13300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>360500</v>
+      </c>
+      <c r="F46" s="3">
         <v>331800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>313000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>266400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>297000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>284600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>297300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>289900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>303000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="F48" s="3">
         <v>81200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>80000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>78200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>74100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>72400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>71100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>71500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>73800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>145100</v>
+      </c>
+      <c r="F49" s="3">
         <v>145000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>144700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>144300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>134300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>135400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>133700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>130300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>128600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>666800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>629500</v>
+      </c>
+      <c r="F54" s="3">
         <v>559700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>540400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>495800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>514200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>502600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>510400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>502200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>516400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,66 +2617,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F57" s="3">
         <v>105500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>101500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>78200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>68700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>76900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>73500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>40300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F58" s="3">
         <v>42100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>42100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>43600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>43600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>47100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>47100</v>
       </c>
       <c r="J58" s="3">
         <v>47100</v>
@@ -2425,169 +2692,199 @@
       <c r="K58" s="3">
         <v>47100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>47100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>47100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F59" s="3">
         <v>53400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>54500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>50600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>75000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>62100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>52100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>64500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>170300</v>
+      </c>
+      <c r="F60" s="3">
         <v>201100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>198200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>172500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>187300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>186000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>172600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>150600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>151900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F61" s="3">
         <v>252700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>263300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>273800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>284400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>340700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>380800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>418000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>428600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F62" s="3">
         <v>18000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>13000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>535100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>507500</v>
+      </c>
+      <c r="F66" s="3">
         <v>471800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>476500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>460300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>485200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>539800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>567200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>581200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>592700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-189500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-194300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-215500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-237600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-240100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-265100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-281800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-300000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-296200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F76" s="3">
         <v>87900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>64000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>35500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>29000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-37200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-56800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-79000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-76200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F89" s="3">
         <v>16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>39800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>57200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>35200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>58300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>65600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,64 +4318,76 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11100</v>
+        <v>45700</v>
       </c>
       <c r="E100" s="3">
-        <v>-10600</v>
+        <v>-12900</v>
       </c>
       <c r="F100" s="3">
         <v>-11100</v>
       </c>
       <c r="G100" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-21500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-45100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-37900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-13500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-51400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3898,53 +4395,65 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-61000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-19200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>19400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E8" s="3">
         <v>174400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>297600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>231700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>155400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>196100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>206300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>183000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>148400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E9" s="3">
         <v>82000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>135300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>113400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E10" s="3">
         <v>92400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>162300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>120100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>116300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>127800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>82200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E17" s="3">
         <v>158300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>285600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>195100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>196700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>203600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>168000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>173100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>178200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>158300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E18" s="3">
         <v>16200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E21" s="3">
         <v>22000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E23" s="3">
         <v>11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7100</v>
       </c>
       <c r="G24" s="3">
         <v>7100</v>
       </c>
       <c r="H24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E27" s="3">
         <v>8500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,11 +1655,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1606,20 +1667,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E33" s="3">
         <v>8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E35" s="3">
         <v>8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E41" s="3">
         <v>118200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E43" s="3">
         <v>60200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>74800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>63000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E44" s="3">
         <v>202400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>185700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>209200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>181400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>164300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>145400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>157700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>149400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>158500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>175100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E46" s="3">
         <v>400600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>360500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>313000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>266400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>297000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>284600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>297300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>289900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>303000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E48" s="3">
         <v>116300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>78200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>71100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>71500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E49" s="3">
         <v>145700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>144700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>144300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>134300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>135400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>133700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627500</v>
+      </c>
+      <c r="E54" s="3">
         <v>666800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>629500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>559700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>540400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>495800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>514200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>502600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>510400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>502200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>516400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,75 +2749,79 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E57" s="3">
         <v>74400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>105500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>78200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E58" s="3">
         <v>17100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>42100</v>
       </c>
       <c r="G58" s="3">
         <v>42100</v>
       </c>
       <c r="H58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="I58" s="3">
         <v>43600</v>
       </c>
       <c r="J58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="K58" s="3">
         <v>47100</v>
@@ -2698,8 +2832,8 @@
       <c r="M58" s="3">
         <v>47100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>47100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2707,184 +2841,199 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E59" s="3">
         <v>59100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E60" s="3">
         <v>150600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>201100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>198200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>172500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>187300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>186000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>172600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>270800</v>
+      </c>
+      <c r="E61" s="3">
         <v>326300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>281700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>252700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>263300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>273800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>284400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>340700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>380800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>418000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>428600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E62" s="3">
         <v>58300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>458400</v>
+      </c>
+      <c r="E66" s="3">
         <v>535100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>507500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>471800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>476500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>460300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>485200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>539800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>567200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>581200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>592700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-147600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-181100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-189500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-194300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-215500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-237600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-240100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-281800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E76" s="3">
         <v>131600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>122000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>87900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-37200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-56800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-79000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-76200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E81" s="3">
         <v>8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,40 +3839,43 @@
         <v>7700</v>
       </c>
       <c r="F83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E89" s="3">
         <v>3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-8400</v>
       </c>
       <c r="H91" s="3">
         <v>-8400</v>
       </c>
       <c r="I91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-7500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,73 +4567,79 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E100" s="3">
         <v>45700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4401,59 +4650,65 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E102" s="3">
         <v>45700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E8" s="3">
         <v>246900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>174400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>297600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>231700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>155400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>241200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>196100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>206300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>183000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E9" s="3">
         <v>109400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>82000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>135300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>113400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E10" s="3">
         <v>137500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>92400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>162300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>120100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>127800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>158300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>285600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>195100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>196700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>146600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>203600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>173100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>178200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>158300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E18" s="3">
         <v>46500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E21" s="3">
         <v>55100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E23" s="3">
         <v>44800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7100</v>
       </c>
       <c r="H24" s="3">
         <v>7100</v>
       </c>
       <c r="I24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E26" s="3">
         <v>33500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E27" s="3">
         <v>33500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,11 +1719,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1670,20 +1731,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E33" s="3">
         <v>33500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E35" s="3">
         <v>33500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E41" s="3">
         <v>127500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>80100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E43" s="3">
         <v>85900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>63000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>59300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E44" s="3">
         <v>138800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>202400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>185700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>209200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>181400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>164300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>145400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>157700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>149400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>158500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>175100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454700</v>
+      </c>
+      <c r="E46" s="3">
         <v>367400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>360500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>331800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>313000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>266400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>297000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>284600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>297300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>289900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>303000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E48" s="3">
         <v>112300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>120400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>71100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>71500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E49" s="3">
         <v>145800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>144700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>144300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>134300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>135400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>133700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>712600</v>
+      </c>
+      <c r="E54" s="3">
         <v>627500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>666800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>629500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>540400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>495800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>514200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>502600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>510400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>502200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>516400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,81 +2880,85 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E57" s="3">
         <v>41400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>105500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>78200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E58" s="3">
         <v>18900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>42100</v>
       </c>
       <c r="H58" s="3">
         <v>42100</v>
       </c>
       <c r="I58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="J58" s="3">
         <v>43600</v>
       </c>
       <c r="K58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="L58" s="3">
         <v>47100</v>
@@ -2835,8 +2969,8 @@
       <c r="N58" s="3">
         <v>47100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>47100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -2844,196 +2978,211 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E59" s="3">
         <v>70800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>75000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E60" s="3">
         <v>131200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>150600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>201100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>172500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>187300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>172600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>150600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>151900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E61" s="3">
         <v>270800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>326300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>281700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>252700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>263300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>273800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>284400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>340700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>380800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>418000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>428600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E62" s="3">
         <v>56400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>489900</v>
+      </c>
+      <c r="E66" s="3">
         <v>458400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>535100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>507500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>471800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>476500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>460300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>485200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>539800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>567200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>581200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>592700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-147600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-181100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-189500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-194300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-215500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-237600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-240100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-281800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-296200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E76" s="3">
         <v>169000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>131600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>87900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>64000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-37200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-56800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-79000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-76200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E81" s="3">
         <v>33500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="E83" s="3">
         <v>7700</v>
@@ -3842,40 +4041,43 @@
         <v>7700</v>
       </c>
       <c r="G83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E89" s="3">
         <v>68500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>65600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-8400</v>
       </c>
       <c r="I91" s="3">
         <v>-8400</v>
       </c>
       <c r="J91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4400,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,79 +4813,85 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>45700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4653,62 +4902,68 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>375800</v>
+      </c>
+      <c r="E8" s="3">
         <v>294600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>246900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>174400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>297600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>229100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>231700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>155400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>241200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>196100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>206300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>183000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>148400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E9" s="3">
         <v>120600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>82000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>135300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E10" s="3">
         <v>174000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>137500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>92400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>162300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>120100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>116300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>76700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>127800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>294300</v>
+      </c>
+      <c r="E17" s="3">
         <v>224500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>158300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>285600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>195100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>196700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>203600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>173100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>178200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E18" s="3">
         <v>70100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>34000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E21" s="3">
         <v>77500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E23" s="3">
         <v>68100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E24" s="3">
         <v>16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7100</v>
       </c>
       <c r="I24" s="3">
         <v>7100</v>
       </c>
       <c r="J24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E26" s="3">
         <v>51400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E27" s="3">
         <v>51400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,11 +1783,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1734,20 +1795,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-5700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E33" s="3">
         <v>51400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E35" s="3">
         <v>51400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E41" s="3">
         <v>234800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>127500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E43" s="3">
         <v>71200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>63000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E44" s="3">
         <v>134600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>138800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>202400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>185700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>209200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>181400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>164300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>145400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>157700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>158500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>175100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E46" s="3">
         <v>454700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>367400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>360500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>331800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>313000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>266400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>297000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>284600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>289900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>303000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E48" s="3">
         <v>110000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>120400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>81200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>71100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>71500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>73800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E49" s="3">
         <v>145900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>144700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>144300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>134300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>135400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>133700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,49 +2820,52 @@
         <v>2000</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>737100</v>
+      </c>
+      <c r="E54" s="3">
         <v>712600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>627500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>666800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>629500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>559700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>540400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>495800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>514200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>502600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>510400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>502200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>516400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,87 +3011,91 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E57" s="3">
         <v>101900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>105500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>101500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>78200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>73500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E58" s="3">
         <v>20800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>42100</v>
       </c>
       <c r="I58" s="3">
         <v>42100</v>
       </c>
       <c r="J58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="K58" s="3">
         <v>43600</v>
       </c>
       <c r="L58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="M58" s="3">
         <v>47100</v>
@@ -2972,8 +3106,8 @@
       <c r="O58" s="3">
         <v>47100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>47100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -2981,208 +3115,223 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E59" s="3">
         <v>96900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>75000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E60" s="3">
         <v>219600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>150600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>201100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>172500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>187300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>150600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>151900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E61" s="3">
         <v>215800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>270800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>326300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>281700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>252700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>263300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>273800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>284400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>340700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>380800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>418000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>428600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E62" s="3">
         <v>54600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>448600</v>
+      </c>
+      <c r="E66" s="3">
         <v>489900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>458400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>535100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>507500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>471800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>476500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>460300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>485200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>539800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>567200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>581200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>592700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-96100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-181100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-189500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-215500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-237600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-240100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-281800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-296200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E76" s="3">
         <v>222600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>131600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>87900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>64000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-37200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-56800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-79000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-76200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E81" s="3">
         <v>51400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,16 +4224,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7700</v>
       </c>
       <c r="F83" s="3">
         <v>7700</v>
@@ -4044,40 +4243,43 @@
         <v>7700</v>
       </c>
       <c r="H83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E89" s="3">
         <v>166700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>60300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>58300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8400</v>
       </c>
       <c r="J91" s="3">
         <v>-8400</v>
       </c>
       <c r="K91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-7500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4634,11 +4868,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,85 +5059,91 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>45700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-45100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4905,65 +5154,71 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>107300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E8" s="3">
         <v>375800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>294600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>246900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>297600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>229100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>231700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>241200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>196100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>206300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>135300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>202100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>183000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>148400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E9" s="3">
         <v>150900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>82000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>135300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>113400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>105700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E10" s="3">
         <v>224900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>174000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>137500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>92400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>162300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>120100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>116300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>127800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>93100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E17" s="3">
         <v>294300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>224500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>158300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>285600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>195100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>196700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>203600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>173100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>178200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E18" s="3">
         <v>81500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>70100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E21" s="3">
         <v>90300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>77500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E23" s="3">
         <v>81100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E24" s="3">
         <v>18800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>7100</v>
       </c>
       <c r="J24" s="3">
         <v>7100</v>
       </c>
       <c r="K24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E26" s="3">
         <v>62400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E27" s="3">
         <v>62400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,40 +1814,43 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1798,20 +1858,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E33" s="3">
         <v>62400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E35" s="3">
         <v>62400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E41" s="3">
         <v>253300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>234800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>127500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>53700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E43" s="3">
         <v>65400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E44" s="3">
         <v>140100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>138800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>202400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>185700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>209200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>181400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>164300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>145400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>157700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>149400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>158500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>175100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>465700</v>
+      </c>
+      <c r="E46" s="3">
         <v>476500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>454700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>367400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>360500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>331800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>313000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>266400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>297000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>284600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>297300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>289900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>303000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E48" s="3">
         <v>112200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>110000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>120400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>81200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>71100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>71500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>73800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E49" s="3">
         <v>146400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>144700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>144300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>134300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>135400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>133700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
       </c>
       <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>733300</v>
+      </c>
+      <c r="E54" s="3">
         <v>737100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>712600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>627500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>666800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>629500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>559700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>540400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>495800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>514200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>502600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>510400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>502200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>516400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E57" s="3">
         <v>123600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>105500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>78200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>73500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,31 +3207,31 @@
         <v>22700</v>
       </c>
       <c r="E58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F58" s="3">
         <v>20800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>42100</v>
       </c>
       <c r="J58" s="3">
         <v>42100</v>
       </c>
       <c r="K58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="L58" s="3">
         <v>43600</v>
       </c>
       <c r="M58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="N58" s="3">
         <v>47100</v>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3">
         <v>47100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>47100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3118,220 +3251,235 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E59" s="3">
         <v>141400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>96900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E60" s="3">
         <v>287800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>219600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>150600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>201100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>172500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>187300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>186000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>150600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>151900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E61" s="3">
         <v>111000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>215800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>270800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>326300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>281700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>252700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>263300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>273800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>284400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>340700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>380800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>418000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>428600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E62" s="3">
         <v>49900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E66" s="3">
         <v>448600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>489900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>458400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>535100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>507500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>476500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>460300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>485200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>539800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>567200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>581200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>592700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-96100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-147600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-181100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-215500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-237600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-240100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-265100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-281800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-296200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E76" s="3">
         <v>288400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>222600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>131600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>64000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-37200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-56800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-79000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E81" s="3">
         <v>62400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7700</v>
       </c>
       <c r="G83" s="3">
         <v>7700</v>
@@ -4246,40 +4444,43 @@
         <v>7700</v>
       </c>
       <c r="I83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E89" s="3">
         <v>127300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>166700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>68500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-8400</v>
       </c>
       <c r="K91" s="3">
         <v>-8400</v>
       </c>
       <c r="L91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4871,11 +5104,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,91 +5304,97 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-102800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5157,68 +5405,74 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>357700</v>
+      </c>
+      <c r="E8" s="3">
         <v>247600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>294600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>246900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>297600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>231700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>241200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>196100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>206300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>135300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>202100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>183000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>148400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E9" s="3">
         <v>102400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>150900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>82000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>135300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>113400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>105700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E10" s="3">
         <v>145200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>224900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>174000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>137500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>92400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>162300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>120100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>116300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>127800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>57200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E17" s="3">
         <v>207500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>294300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>224500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>158300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>285600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>195100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>196700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>146600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>203600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>168000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>173100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>178200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>158300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E18" s="3">
         <v>40100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E21" s="3">
         <v>47300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>77500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E23" s="3">
         <v>38900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>81100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7100</v>
       </c>
       <c r="K24" s="3">
         <v>7100</v>
       </c>
       <c r="L24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>62400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E27" s="3">
         <v>30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,17 +1904,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1861,20 +1922,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E33" s="3">
         <v>30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E35" s="3">
         <v>30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E41" s="3">
         <v>190300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>253300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>234800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>127500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>118200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E43" s="3">
         <v>67100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>71200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E44" s="3">
         <v>183900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>140100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>134600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>138800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>202400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>185700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>209200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>181400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>164300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>145400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>157700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>149400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>158500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>175100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561200</v>
+      </c>
+      <c r="E46" s="3">
         <v>465700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>476500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>367400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>360500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>331800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>313000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>266400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>297300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>289900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>303000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E48" s="3">
         <v>119100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>110000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>112300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>120400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>81200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>71100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>71500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>73800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E49" s="3">
         <v>146500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>146400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>144700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>144300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>134300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>135400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>133700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
       </c>
       <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E54" s="3">
         <v>733300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>737100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>712600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>627500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>666800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>629500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>559700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>540400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>495800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>514200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>502600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>510400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>502200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>516400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,99 +3272,103 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E57" s="3">
         <v>120000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>123600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>105500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>78200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>76900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>73500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="E58" s="3">
         <v>22700</v>
       </c>
       <c r="F58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G58" s="3">
         <v>20800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>42100</v>
       </c>
       <c r="K58" s="3">
         <v>42100</v>
       </c>
       <c r="L58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="M58" s="3">
         <v>43600</v>
       </c>
       <c r="N58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="O58" s="3">
         <v>47100</v>
@@ -3245,8 +3379,8 @@
       <c r="Q58" s="3">
         <v>47100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>47100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3254,232 +3388,247 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E59" s="3">
         <v>110300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>141400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>96900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E60" s="3">
         <v>253000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>287800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>219600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>150600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>201100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>172500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>187300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>186000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>172600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>150600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>151900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E61" s="3">
         <v>105500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>111000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>215800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>270800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>326300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>281700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>252700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>263300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>273800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>284400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>340700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>380800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>418000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>428600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E62" s="3">
         <v>53400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>479900</v>
+      </c>
+      <c r="E66" s="3">
         <v>412000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>448600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>489900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>458400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>535100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>507500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>471800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>476500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>460300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>485200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>539800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>567200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>581200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>592700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-96100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-147600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-181100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-189500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-194300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-215500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-237600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-240100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-265100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-281800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-296200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E76" s="3">
         <v>321300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>288400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>222600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>169000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-37200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-56800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-76200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E81" s="3">
         <v>30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,22 +4621,23 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7700</v>
       </c>
       <c r="H83" s="3">
         <v>7700</v>
@@ -4447,40 +4646,43 @@
         <v>7700</v>
       </c>
       <c r="J83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>127300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>166700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>68500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-8400</v>
       </c>
       <c r="L91" s="3">
         <v>-8400</v>
       </c>
       <c r="M91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5107,11 +5341,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,97 +5550,103 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-102800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>45700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5408,71 +5657,77 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>107300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>45700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-61000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E8" s="3">
         <v>357700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>247600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>375800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>294600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>246900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>297600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>231700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>241200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>196100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>206300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>135300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>202100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>183000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>148400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E9" s="3">
         <v>148600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>150900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>82000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>135300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>113400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>105700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>75400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E10" s="3">
         <v>209200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>145200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>224900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>174000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>137500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>92400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>162300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>127800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>57200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>82200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E17" s="3">
         <v>285200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>207500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>294300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>224500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>158300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>285600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>195100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>196700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>203600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>168000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>173100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>178200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>130700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E18" s="3">
         <v>72500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E21" s="3">
         <v>78900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>77500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,176 +1514,185 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E23" s="3">
         <v>70600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>38900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>81100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E24" s="3">
         <v>14400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>7100</v>
       </c>
       <c r="L24" s="3">
         <v>7100</v>
       </c>
       <c r="M24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>56200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>62400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>33500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E27" s="3">
         <v>56200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,17 +1968,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1925,20 +1986,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-5700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E33" s="3">
         <v>56200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>33500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E35" s="3">
         <v>56200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>33500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E41" s="3">
         <v>233800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>253300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>234800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>127500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>80100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>60400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E43" s="3">
         <v>81900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>71200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>63000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E44" s="3">
         <v>221700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>183900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>140100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>138800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>202400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>185700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>209200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>164300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>145400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>157700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>149400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>158500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>175100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>632200</v>
+      </c>
+      <c r="E46" s="3">
         <v>561200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>465700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>476500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>367400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>360500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>331800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>313000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>266400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>297000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>284600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>297300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>289900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>303000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E48" s="3">
         <v>153700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>112300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>116300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>72400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>71100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>71500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>73800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E49" s="3">
         <v>147200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>146500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>146400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>144700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>144300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>134300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>133700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>130300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2000</v>
       </c>
       <c r="G52" s="3">
         <v>2000</v>
       </c>
       <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>945500</v>
+      </c>
+      <c r="E54" s="3">
         <v>864000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>733300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>737100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>712600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>627500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>666800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>629500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>540400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>495800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>514200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>502600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>510400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>502200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>516400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E57" s="3">
         <v>145700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>120000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>123600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>101500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>78200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>76900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>73500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,37 +3475,37 @@
         <v>24500</v>
       </c>
       <c r="E58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="F58" s="3">
         <v>22700</v>
       </c>
       <c r="G58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H58" s="3">
         <v>20800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>42100</v>
       </c>
       <c r="L58" s="3">
         <v>42100</v>
       </c>
       <c r="M58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="N58" s="3">
         <v>43600</v>
       </c>
       <c r="O58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="P58" s="3">
         <v>47100</v>
@@ -3382,8 +3516,8 @@
       <c r="R58" s="3">
         <v>47100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>47100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3391,244 +3525,259 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E59" s="3">
         <v>133800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>110300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>141400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>96900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>75000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E60" s="3">
         <v>304000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>253000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>287800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>219600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>150600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>201100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>198200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>187300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>186000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>172600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>150600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>151900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E61" s="3">
         <v>107800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>105500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>111000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>215800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>270800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>326300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>281700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>252700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>263300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>273800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>284400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>340700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>380800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>418000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>428600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E62" s="3">
         <v>68100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>505900</v>
+      </c>
+      <c r="E66" s="3">
         <v>479900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>412000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>448600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>489900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>458400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>535100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>507500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>471800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>476500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>460300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>485200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>539800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>567200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>581200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>592700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-96100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-147600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-181100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-189500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-194300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-215500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-237600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-240100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-265100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-281800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-300000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-296200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>439600</v>
+      </c>
+      <c r="E76" s="3">
         <v>384100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>321300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>288400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>222600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>169000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-37200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-79000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-76200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E81" s="3">
         <v>56200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>33500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,25 +4820,26 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7700</v>
       </c>
       <c r="I83" s="3">
         <v>7700</v>
@@ -4649,40 +4848,43 @@
         <v>7700</v>
       </c>
       <c r="K83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E89" s="3">
         <v>62500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>127300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>166700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>68500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>58300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-8400</v>
       </c>
       <c r="M91" s="3">
         <v>-8400</v>
       </c>
       <c r="N91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-7500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5344,11 +5578,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,103 +5796,109 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-102800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-53500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>45700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5660,74 +5909,80 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E102" s="3">
         <v>43500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-63000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>107300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>45700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-61000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>443100</v>
+      </c>
+      <c r="E8" s="3">
         <v>362600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>357700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>247600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>375800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>294600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>246900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>297600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>231700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>155400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>241200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>196100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>206300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>135300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>202100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>183000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>148400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E9" s="3">
         <v>155600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>150900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>82000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>135300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>113400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>105700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>75400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E10" s="3">
         <v>207000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>145200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>224900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>174000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>137500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>92400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>120100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>127800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>57200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>82200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>349400</v>
+      </c>
+      <c r="E17" s="3">
         <v>293900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>285200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>207500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>294300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>224500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>158300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>285600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>195100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>196700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>146600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>203600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>168000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>173100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>178200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>130700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E18" s="3">
         <v>68700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>70100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E21" s="3">
         <v>76000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>78900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>77500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>55100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,182 +1557,191 @@
         <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E23" s="3">
         <v>66700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>70600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>38900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>81100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E24" s="3">
         <v>13700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7100</v>
       </c>
       <c r="M24" s="3">
         <v>7100</v>
       </c>
       <c r="N24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E26" s="3">
         <v>53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>62400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>51400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E27" s="3">
         <v>53000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>51400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>33500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,17 +2032,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1989,20 +2050,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-5700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E33" s="3">
         <v>53000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E35" s="3">
         <v>53000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E41" s="3">
         <v>259300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>233800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>253300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>234800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>127500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>118200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>60400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E43" s="3">
         <v>83300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>65400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>71200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>75900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>63000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>59300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>318900</v>
+      </c>
+      <c r="E44" s="3">
         <v>266000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>221700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>183900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>140100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>138800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>202400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>185700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>209200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>181400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>164300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>145400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>157700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>149400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>158500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>175100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>770200</v>
+      </c>
+      <c r="E46" s="3">
         <v>632200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>561200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>465700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>476500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>454700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>367400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>360500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>331800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>313000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>266400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>297000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>297300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>289900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>303000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E48" s="3">
         <v>163000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>153700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>112200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>116300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>81200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>71100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>71500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>73800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E49" s="3">
         <v>148400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>147200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>146500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>146400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>144700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>144300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>134300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>133700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>130300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>128600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2000</v>
       </c>
       <c r="H52" s="3">
         <v>2000</v>
       </c>
       <c r="I52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1096400</v>
+      </c>
+      <c r="E54" s="3">
         <v>945500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>864000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>733300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>737100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>712600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>666800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>629500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>559700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>540400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>495800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>514200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>502600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>510400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>502200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>516400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,111 +3534,115 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E57" s="3">
         <v>166100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>120000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>123600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>101500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>78200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>76900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>73500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="E58" s="3">
         <v>24500</v>
       </c>
       <c r="F58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="G58" s="3">
         <v>22700</v>
       </c>
       <c r="H58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I58" s="3">
         <v>20800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>42100</v>
       </c>
       <c r="M58" s="3">
         <v>42100</v>
       </c>
       <c r="N58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="O58" s="3">
         <v>43600</v>
       </c>
       <c r="P58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="Q58" s="3">
         <v>47100</v>
@@ -3519,8 +3653,8 @@
       <c r="S58" s="3">
         <v>47100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>47100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3528,256 +3662,271 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E59" s="3">
         <v>139200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>110300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>141400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>96900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>75000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E60" s="3">
         <v>329900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>304000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>253000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>287800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>219600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>150600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>201100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>198200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>187300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>186000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>172600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>150600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>151900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E61" s="3">
         <v>101700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>107800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>105500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>111000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>215800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>270800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>326300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>281700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>252700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>263300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>273800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>284400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>340700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>380800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>418000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>428600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E62" s="3">
         <v>74300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>58300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E66" s="3">
         <v>505900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>479900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>412000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>448600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>489900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>458400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>535100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>507500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>471800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>476500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>460300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>485200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>539800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>567200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>581200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>592700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E72" s="3">
         <v>106000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-96100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-147600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-181100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-189500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-194300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-215500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-237600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-240100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-265100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-281800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-300000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-296200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E76" s="3">
         <v>439600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>384100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>321300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>288400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>222600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>169000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-56800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-79000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-76200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E81" s="3">
         <v>53000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,28 +5019,29 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7700</v>
       </c>
       <c r="J83" s="3">
         <v>7700</v>
@@ -4851,40 +5050,43 @@
         <v>7700</v>
       </c>
       <c r="L83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E89" s="3">
         <v>51000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>127300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>166700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>58300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8400</v>
       </c>
       <c r="N91" s="3">
         <v>-8400</v>
       </c>
       <c r="O91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5581,11 +5815,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,109 +6042,115 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-102800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>45700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-37900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5912,77 +6161,83 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E102" s="3">
         <v>25500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-63000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>107300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>45700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-61000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E8" s="3">
         <v>443100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>362600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>357700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>247600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>294600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>246900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>297600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>231700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>155400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>196100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>206300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>135300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>202100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>183000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>148400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E9" s="3">
         <v>188300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>155600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>150900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>135300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>113400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>105700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>78100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>109000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>100800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>75400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E10" s="3">
         <v>254800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>207000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>145200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>224900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>174000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>137500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>92400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>127800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>97500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>57200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>93100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>82200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>260300</v>
+      </c>
+      <c r="E17" s="3">
         <v>349400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>293900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>285200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>207500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>294300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>224500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>158300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>285600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>195100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>196700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>146600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>203600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>168000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>173100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>178200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>158300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>130700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>93700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>72500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>81500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>70100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E21" s="3">
         <v>101700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>76000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>78900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>77500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,188 +1600,197 @@
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E23" s="3">
         <v>92200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>66700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>70600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>81100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>19300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7100</v>
       </c>
       <c r="N24" s="3">
         <v>7100</v>
       </c>
       <c r="O24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E26" s="3">
         <v>72900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>51400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E27" s="3">
         <v>72900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>51400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2035,17 +2096,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2053,20 +2114,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-5700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E33" s="3">
         <v>72900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E35" s="3">
         <v>72900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E41" s="3">
         <v>312200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>233800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>253300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>234800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>127500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>80100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>60400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>53700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E43" s="3">
         <v>109500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>71200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>82700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>63000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>59300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E44" s="3">
         <v>318900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>266000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>221700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>183900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>140100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>134600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>138800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>202400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>185700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>209200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>181400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>164300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>145400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>157700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>149400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>158500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>175100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E45" s="3">
         <v>29600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>635900</v>
+      </c>
+      <c r="E46" s="3">
         <v>770200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>632200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>561200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>465700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>476500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>454700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>367400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>360500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>331800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>313000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>266400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>297000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>297300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>289900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>303000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3135,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E48" s="3">
         <v>174000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>153700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>119100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>112200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>112300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>81200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>78200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>72400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>71100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>71500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>73800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E49" s="3">
         <v>149600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>148400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>147200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>146500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>145000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>144700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>144300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>134300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>133700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>130300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>2000</v>
       </c>
       <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>969500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1096400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>945500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>864000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>733300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>737100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>712600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>666800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>629500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>559700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>540400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>495800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>514200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>502600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>510400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>502200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>516400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E57" s="3">
         <v>191300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>166100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>145700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>120000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>123600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>101900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>105500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>101500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>78200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>68700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>76900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>73500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,43 +3743,43 @@
         <v>24600</v>
       </c>
       <c r="E58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="F58" s="3">
         <v>24500</v>
       </c>
       <c r="G58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="H58" s="3">
         <v>22700</v>
       </c>
       <c r="I58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J58" s="3">
         <v>20800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>42100</v>
       </c>
       <c r="N58" s="3">
         <v>42100</v>
       </c>
       <c r="O58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="P58" s="3">
         <v>43600</v>
       </c>
       <c r="Q58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="R58" s="3">
         <v>47100</v>
@@ -3656,8 +3790,8 @@
       <c r="T58" s="3">
         <v>47100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>47100</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3665,268 +3799,283 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E59" s="3">
         <v>187800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>139200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>110300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>141400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>350100</v>
+      </c>
+      <c r="E60" s="3">
         <v>403700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>329900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>304000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>253000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>287800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>219600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>131200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>150600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>201100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>172500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>187300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>186000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>172600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>150600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>151900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E61" s="3">
         <v>95700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>101700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>107800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>105500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>111000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>215800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>270800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>326300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>281700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>252700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>263300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>273800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>284400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>340700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>380800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>418000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>428600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E62" s="3">
         <v>79100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>523200</v>
+      </c>
+      <c r="E66" s="3">
         <v>578500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>505900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>479900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>412000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>448600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>489900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>458400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>535100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>507500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>471800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>476500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>460300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>485200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>539800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>567200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>581200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>592700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E72" s="3">
         <v>178900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>106000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-96100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-147600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-181100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-189500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-215500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-237600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-240100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-265100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-281800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-300000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-296200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E76" s="3">
         <v>517800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>439600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>384100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>321300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>288400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>222600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>169000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>131600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>122000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-37200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-56800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-79000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-76200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E81" s="3">
         <v>72900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,31 +5218,32 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7700</v>
       </c>
       <c r="K83" s="3">
         <v>7700</v>
@@ -5053,40 +5252,43 @@
         <v>7700</v>
       </c>
       <c r="M83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E89" s="3">
         <v>73300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>127300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>166700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>68500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>58300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-8400</v>
       </c>
       <c r="O91" s="3">
         <v>-8400</v>
       </c>
       <c r="P91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5818,11 +6052,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,115 +6288,121 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-102800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-51400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6164,80 +6413,86 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="E102" s="3">
         <v>52900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>107300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-61000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E8" s="3">
         <v>293600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>443100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>362600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>357700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>247600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>294600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>246900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>297600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>231700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>155400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>241200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>196100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>206300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>135300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>202100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>183000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>148400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E9" s="3">
         <v>138800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>155600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>148600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>150900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>82000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>135300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>113400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>105700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>109000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>75400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E10" s="3">
         <v>154800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>254800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>207000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>209200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>145200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>224900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>174000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>92400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>116300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>127800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>97500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>57200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>93100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>73000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>351700</v>
+      </c>
+      <c r="E17" s="3">
         <v>260300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>349400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>293900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>285200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>207500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>294300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>158300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>285600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>195100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>196700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>146600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>203600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>168000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>173100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>178200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>158300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>130700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E18" s="3">
         <v>33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>72500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>81500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>70100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>37600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,149 +1482,156 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E21" s="3">
         <v>42800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>76000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>78900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>77500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
@@ -1603,194 +1643,203 @@
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E23" s="3">
         <v>33400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>92200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>66700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>70600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>38900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>81100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>7100</v>
       </c>
       <c r="O24" s="3">
         <v>7100</v>
       </c>
       <c r="P24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E26" s="3">
         <v>25700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>62400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E27" s="3">
         <v>25700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2099,17 +2160,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2117,20 +2178,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-5700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E33" s="3">
         <v>25700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E35" s="3">
         <v>25700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E41" s="3">
         <v>100300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>312200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>259300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>233800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>253300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>234800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>127500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>60400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2888,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E43" s="3">
         <v>83000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>65400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>71200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>82700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>75900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>63000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>61900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E44" s="3">
         <v>413000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>318900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>266000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>221700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>140100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>134600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>138800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>202400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>185700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>209200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>181400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>164300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>145400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>157700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>149400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>158500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>175100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E45" s="3">
         <v>39600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E46" s="3">
         <v>635900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>770200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>632200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>561200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>465700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>476500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>454700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>367400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>360500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>331800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>313000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>266400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>297000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>297300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>289900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>303000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,144 +3243,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E48" s="3">
         <v>179700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>174000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>153700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>112300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>78200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>72400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>71100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>71500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>73800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E49" s="3">
         <v>151400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>149600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>148400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>147200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>146400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>145100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>145000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>144700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>144300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>134300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>135400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>133700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>130300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>128600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,67 +3539,70 @@
         <v>2500</v>
       </c>
       <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2000</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
       </c>
       <c r="K52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1055400</v>
+      </c>
+      <c r="E54" s="3">
         <v>969500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1096400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>945500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>864000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>733300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>737100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>712600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>627500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>666800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>629500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>559700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>540400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>495800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>514200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>502600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>510400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>502200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>516400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E57" s="3">
         <v>167400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>166100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>145700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>120000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>123600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>101500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>78200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>68700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>76900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>73500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3746,43 +3880,43 @@
         <v>24600</v>
       </c>
       <c r="F58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="G58" s="3">
         <v>24500</v>
       </c>
       <c r="H58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="I58" s="3">
         <v>22700</v>
       </c>
       <c r="J58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K58" s="3">
         <v>20800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>42100</v>
       </c>
       <c r="O58" s="3">
         <v>42100</v>
       </c>
       <c r="P58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="Q58" s="3">
         <v>43600</v>
       </c>
       <c r="R58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="S58" s="3">
         <v>47100</v>
@@ -3793,8 +3927,8 @@
       <c r="U58" s="3">
         <v>47100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>47100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -3802,280 +3936,295 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E59" s="3">
         <v>158100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>187800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>110300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>141400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>51900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>64500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>391400</v>
+      </c>
+      <c r="E60" s="3">
         <v>350100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>403700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>329900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>304000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>253000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>287800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>219600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>201100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>198200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>172500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>187300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>186000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>172600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>150600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>151900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E61" s="3">
         <v>89600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>95700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>101700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>107800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>105500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>111000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>215800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>270800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>326300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>281700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>252700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>263300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>273800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>284400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>340700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>380800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>418000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>428600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E62" s="3">
         <v>83500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>79100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>555500</v>
+      </c>
+      <c r="E66" s="3">
         <v>523200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>578500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>505900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>479900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>412000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>448600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>489900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>458400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>535100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>507500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>471800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>476500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>460300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>485200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>539800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>567200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>581200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>592700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E72" s="3">
         <v>204500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>178900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>106000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-96100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-147600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-181100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-189500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-215500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-237600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-240100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-265100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-281800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-300000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-296200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>499900</v>
+      </c>
+      <c r="E76" s="3">
         <v>446400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>517800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>439600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>321300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>288400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>222600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>169000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>131600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-37200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-56800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-79000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-76200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E81" s="3">
         <v>25700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,34 +5417,35 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E83" s="3">
         <v>8700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7700</v>
       </c>
       <c r="L83" s="3">
         <v>7700</v>
@@ -5255,40 +5454,43 @@
         <v>7700</v>
       </c>
       <c r="N83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-88600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>73300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>127300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>166700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-8400</v>
       </c>
       <c r="P91" s="3">
         <v>-8400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6055,11 +6289,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,121 +6534,127 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-107600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-102800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>45700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-37900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-51400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6416,83 +6665,89 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-211900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>107300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,348 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>433600</v>
+      </c>
+      <c r="F8" s="3">
         <v>420000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>293600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>443100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>362600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>357700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>247600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>375800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>294600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>246900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>174400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>297600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>229100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>231700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>155400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>241200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>196100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>206300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>135300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>202100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>183000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>148400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>211100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>138800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>188300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>155600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>148600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>102400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>150900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>120600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>109400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>82000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>135300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>109000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>115400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>78700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>113400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>98600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>105700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>78100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>109000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>100800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>75400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>222500</v>
+      </c>
+      <c r="F10" s="3">
         <v>219100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>154800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>254800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>207000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>209200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>145200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>224900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>174000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>137500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>92400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>162300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>120100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>116300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>76700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>127800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>97500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>100600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>57200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>93100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>82200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>73000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1032,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1105,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1182,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1259,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1336,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1366,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>491700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>365100</v>
+      </c>
+      <c r="F17" s="3">
         <v>351700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>260300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>349400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>293900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>285200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>207500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>294300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>224500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>158300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>285600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>195100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>196700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>146600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>203600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>168000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>173100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>132000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>178200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>158300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>130700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F18" s="3">
         <v>68300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>33300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>93700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>68700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>72500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>40100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>81500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>70100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>46500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>34000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>35000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>37600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>28100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>33200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>23900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>24700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>17700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,161 +1549,175 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F21" s="3">
         <v>72400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>42800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>101700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>76000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>78900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>47300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>90300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>77500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>55100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>22000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>41100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>42300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>43200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>34200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>39300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>8900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>28900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>30600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>23500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
@@ -1646,200 +1726,218 @@
         <v>800</v>
       </c>
       <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7800</v>
-      </c>
-      <c r="T22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>8100</v>
       </c>
       <c r="V22" s="3">
         <v>8600</v>
       </c>
       <c r="W22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>8400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>8100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>59700</v>
+      </c>
+      <c r="F23" s="3">
         <v>61600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>33400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>92200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>66700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>70600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>38900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>81100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>68100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>28400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>29400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>29900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>20200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>14700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>16500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>10900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F24" s="3">
         <v>15300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>19300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>13700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>14400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>5200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>3800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +2007,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F26" s="3">
         <v>46300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>25700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>72900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>53000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>56200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>62400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>51400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>33500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>22200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>25200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>18800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>9700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>11300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>7100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F27" s="3">
         <v>46300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>25700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>72900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>53000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>56200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>62400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>51400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>33500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>21300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>22200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>25200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>18800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>9700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>7000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2238,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2163,38 +2285,44 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2392,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2469,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F32" s="3">
         <v>5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F33" s="3">
         <v>46300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>25700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>72900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>53000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>56200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>62400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>51400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>33500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>21300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>22200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>25200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>17000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>18800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>7000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2700,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F35" s="3">
         <v>46300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>25700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>72900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>53000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>56200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>62400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>51400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>33500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>21300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>22200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>25200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>17000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>18800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>7000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2892,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2921,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F41" s="3">
         <v>92000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>312200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>259300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>233800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>190300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>253300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>234800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>127500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>118200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>72500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>34600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>38000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>19000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>80100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>52100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>71300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>60400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>53700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,292 +3071,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F43" s="3">
         <v>94300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>83000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>109500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>83300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>81900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>67100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>65400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>71200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>85900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>60200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>82700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>74800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>75900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>63000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>59300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>61900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>65400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>60400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>67200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>371400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>439400</v>
+      </c>
+      <c r="F44" s="3">
         <v>490000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>413000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>318900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>266000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>221700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>183900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>140100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>134600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>138800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>202400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>185700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>209200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>181400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>164300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>145400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>157700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>149400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>158500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>175100</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>39600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>23600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>23800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>19900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>11100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>10500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>718900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>644700</v>
+      </c>
+      <c r="F46" s="3">
         <v>717000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>635900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>770200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>632200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>561200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>465700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>476500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>454700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>367400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>360500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>331800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>313000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>266400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>297000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>284600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>297300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>289900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>303000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,150 +3456,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>183700</v>
+      </c>
+      <c r="F48" s="3">
         <v>183800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>179700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>174000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>163000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>153700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>119100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>112200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>110000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>112300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>116300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>120400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>81200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>80000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>78200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>74100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>72400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>71100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>71500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>73800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>152400</v>
+      </c>
+      <c r="F49" s="3">
         <v>152100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>151400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>149600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>148400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>147200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>146500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>146400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>145900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>145800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>145700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>145100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>145000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>144700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>144300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>134300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>135400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>133700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>130300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>128600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3687,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,25 +3764,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>1900</v>
@@ -3557,52 +3797,58 @@
         <v>2000</v>
       </c>
       <c r="K52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>11000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3918,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1076800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>983200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1055400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>969500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1096400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>945500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>864000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>733300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>737100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>712600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>627500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>666800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>629500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>559700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>540400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>495800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>514200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>502600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>510400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>502200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>516400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +4028,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,79 +4057,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>122800</v>
+      </c>
+      <c r="F57" s="3">
         <v>204100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>167400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>191300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>166100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>145700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>120000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>123600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>101900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>41400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>74400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>83800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>105500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>101500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>78200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>68700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>76900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>73500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>51600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>40300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3877,52 +4145,52 @@
         <v>24600</v>
       </c>
       <c r="E58" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="F58" s="3">
         <v>24600</v>
       </c>
       <c r="G58" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I58" s="3">
         <v>24500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>24500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>22700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>18900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>42100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>42100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>43600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>43600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>47100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>47100</v>
       </c>
       <c r="U58" s="3">
         <v>47100</v>
@@ -3930,301 +4198,331 @@
       <c r="V58" s="3">
         <v>47100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>47100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>47100</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>128400</v>
+      </c>
+      <c r="F59" s="3">
         <v>162700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>158100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>187800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>139200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>133800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>110300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>141400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>96900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>70800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>59100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>71300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>53400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>54500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>50600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>75000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>62100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>52100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>51900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>64500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>275600</v>
+      </c>
+      <c r="F60" s="3">
         <v>391400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>350100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>403700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>329900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>304000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>253000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>287800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>219600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>131200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>150600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>170300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>201100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>198200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>172500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>187300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>186000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>172600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>150600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>151900</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F61" s="3">
         <v>83600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>89600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>95700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>101700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>107800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>105500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>111000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>215800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>270800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>326300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>281700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>252700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>263300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>273800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>284400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>340700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>380800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>418000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>428600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>79200</v>
+      </c>
+      <c r="F62" s="3">
         <v>80500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>83500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>79100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>74300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>68100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>53400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>49900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>54600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>56400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>58300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>55500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>14000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>13500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>13000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>13800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>12600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>12100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4592,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4669,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4746,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>432600</v>
+      </c>
+      <c r="F66" s="3">
         <v>555500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>523200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>578500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>505900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>479900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>412000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>448600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>489900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>458400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>535100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>507500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>471800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>476500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>460300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>485200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>539800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>567200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>581200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>592700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4856,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4929,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +5006,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +5083,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +5160,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>268600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>296300</v>
+      </c>
+      <c r="F72" s="3">
         <v>250800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>204500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>178900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>106000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>53000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-96100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-147600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-181100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-189500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-194300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-215500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-237600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-240100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-265100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-281800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-300000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-296200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5314,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5391,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5468,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>550700</v>
+      </c>
+      <c r="F76" s="3">
         <v>499900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>446400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>517800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>439600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>384100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>321300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>288400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>222600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>169000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>131600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>122000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>87900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>64000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>35500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>29000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-37200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-56800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-79000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-76200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5622,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F81" s="3">
         <v>46300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>25700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>72900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>53000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>56200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>62400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>51400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>33500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>21300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>22200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>25200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>17000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>18800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>7000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5814,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F83" s="3">
         <v>9800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7500</v>
       </c>
       <c r="L83" s="3">
         <v>7700</v>
       </c>
       <c r="M83" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="N83" s="3">
         <v>7700</v>
       </c>
       <c r="O83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>6600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>6300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>6200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>5800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>4600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5964,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +6041,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +6118,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +6195,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6272,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-88600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>73300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>51000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>62500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-40300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>127300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>166700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>68500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>60300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>39800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-30000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>57200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>35200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>58300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>25300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>72200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>65600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>21600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,8 +6382,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5951,70 +6393,76 @@
         <v>-13400</v>
       </c>
       <c r="E91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-15300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-12600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-9600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6532,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6609,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-19800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-9300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-9500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6719,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6292,14 +6760,14 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6324,8 +6792,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6869,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6946,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,130 +7023,142 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-107600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-102800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-53500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-52600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>45700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-12900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-10600</v>
       </c>
       <c r="Q100" s="3">
         <v>-11100</v>
       </c>
       <c r="R100" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-21500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-45100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-37900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-13500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-51400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-27600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>-600</v>
       </c>
       <c r="L101" s="3">
+        <v>600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6668,86 +7166,98 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-211900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>52900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>25500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>43500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-63000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>18500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>107300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>9200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>45700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>38000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-61000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-19200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>10900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>18900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>19400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>3800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>302800</v>
+      </c>
+      <c r="E8" s="3">
         <v>448000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>433600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>420000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>293600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>443100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>362600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>357700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>247600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>375800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>294600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>246900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>297600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>231700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>155400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>241200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>196100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>206300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>135300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>202100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>183000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>148400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E9" s="3">
         <v>281000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>211100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>138800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>155600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>148600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>150900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>135300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>115400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>78700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>113400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>98600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>105700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>78100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>109000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>100800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>75400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>219100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>154800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>254800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>207000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>209200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>145200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>224900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>174000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>137500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>92400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>127800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>97500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>57200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>93100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>82200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>73000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E17" s="3">
         <v>491700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>365100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>351700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>260300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>349400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>293900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>285200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>207500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>294300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>224500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>158300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>285600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>195100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>196700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>146600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>203600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>168000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>173100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>178200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>158300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>130700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-43700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>93700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>72500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>24700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,176 +1584,183 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>101700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>76000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>78900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>55100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>30600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>23500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>800</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1732,212 +1772,221 @@
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>92200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>66700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>70600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>16500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7100</v>
       </c>
       <c r="R24" s="3">
         <v>7100</v>
       </c>
       <c r="S24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>45500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>72900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2291,17 +2352,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2309,20 +2370,23 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,162 +2542,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>72900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>72900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E41" s="3">
         <v>234700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>312200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>233800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>253300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>234800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>127500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>118200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>80100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>60400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>53700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,316 +3167,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E43" s="3">
         <v>79400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>83000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>81900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>82700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>63000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>61900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>60400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>67200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E44" s="3">
         <v>371400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>439400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>490000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>413000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>318900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>266000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>221700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>140100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>134600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>138800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>202400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>185700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>209200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>181400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>164300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>145400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>157700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>149400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>158500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>175100</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E45" s="3">
         <v>33300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>654900</v>
+      </c>
+      <c r="E46" s="3">
         <v>718900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>644700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>717000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>635900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>770200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>632200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>561200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>465700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>476500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>454700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>367400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>360500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>331800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>313000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>266400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>297000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>284600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>297300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>289900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>303000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,162 +3567,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E48" s="3">
         <v>180000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>183700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>174000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>153700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>112200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>116300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>120400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>81200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>80000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>78200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>74100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>72400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>71100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>71500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>73800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E49" s="3">
         <v>153700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>152400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>152100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>151400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>149600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>148400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>147200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>145900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>145800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>145700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>145100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>145000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>144700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>144300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>134300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>135400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>133700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>130300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>128600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E52" s="3">
         <v>24100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2500</v>
       </c>
       <c r="G52" s="3">
         <v>2500</v>
       </c>
       <c r="H52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2000</v>
       </c>
       <c r="M52" s="3">
         <v>2000</v>
       </c>
       <c r="N52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11000</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1006500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1076800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>983200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1055400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>969500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1096400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>945500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>864000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>733300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>737100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>712600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>627500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>666800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>629500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>559700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>540400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>495800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>514200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>502600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>510400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>502200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>516400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,96 +4189,100 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E57" s="3">
         <v>140800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>122800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>204100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>167400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>191300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>166100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>145700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>120000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>123600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>101900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>74400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>83800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>101500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>78200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>68700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>76900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>73500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>51600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E58" s="3">
         <v>24600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>24600</v>
       </c>
       <c r="G58" s="3">
         <v>24600</v>
@@ -4157,43 +4291,43 @@
         <v>24600</v>
       </c>
       <c r="I58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="J58" s="3">
         <v>24500</v>
       </c>
       <c r="K58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="L58" s="3">
         <v>22700</v>
       </c>
       <c r="M58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>42100</v>
       </c>
       <c r="R58" s="3">
         <v>42100</v>
       </c>
       <c r="S58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="T58" s="3">
         <v>43600</v>
       </c>
       <c r="U58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="V58" s="3">
         <v>47100</v>
@@ -4204,8 +4338,8 @@
       <c r="X58" s="3">
         <v>47100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>47100</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4213,316 +4347,331 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E59" s="3">
         <v>243600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>158100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>187800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>141400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>96900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>75000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>52100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>51900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>64500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E60" s="3">
         <v>409000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>275600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>391400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>350100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>403700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>329900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>304000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>253000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>287800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>219600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>131200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>150600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>170300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>201100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>198200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>172500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>187300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>186000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>172600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>150600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>151900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E61" s="3">
         <v>71700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>83600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>89600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>95700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>101700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>107800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>105500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>111000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>215800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>270800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>326300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>281700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>252700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>263300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>273800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>284400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>340700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>380800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>418000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>428600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E62" s="3">
         <v>69500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>79200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>79100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>68100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>58300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E66" s="3">
         <v>550300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>432600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>555500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>523200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>578500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>505900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>479900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>412000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>448600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>489900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>458400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>535100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>507500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>471800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>476500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>460300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>485200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>539800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>567200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>581200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>592700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E72" s="3">
         <v>268600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>296300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>250800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>204500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>178900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>106000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-96100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-147600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-181100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-189500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-194300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-215500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-237600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-240100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-265100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-281800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-300000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-296200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>542600</v>
+      </c>
+      <c r="E76" s="3">
         <v>526500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>550700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>499900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>446400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>517800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>439600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>384100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>321300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>222600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>169000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>131600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>122000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>87900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>64000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-37200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-56800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-79000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-76200</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>72900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,43 +6014,44 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7700</v>
       </c>
       <c r="O83" s="3">
         <v>7700</v>
@@ -5861,40 +6060,43 @@
         <v>7700</v>
       </c>
       <c r="Q83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E89" s="3">
         <v>173100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-88600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>73300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>166700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>25300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>65600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-8400</v>
       </c>
       <c r="S91" s="3">
         <v>-8400</v>
       </c>
       <c r="T91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="U91" s="3">
         <v>-7500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6766,11 +7000,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,139 +7272,145 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-107600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>45700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-37900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -7172,92 +7421,98 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E102" s="3">
         <v>157000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-211900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>45700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-61000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,373 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>402600</v>
+      </c>
+      <c r="E8" s="3">
         <v>302800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>448000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>433600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>420000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>293600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>443100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>362600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>357700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>247600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>375800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>294600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>246900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>297600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>231700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>155400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>241200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>196100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>206300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>135300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>202100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>183000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>148400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E9" s="3">
         <v>140900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>281000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>211100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>138800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>155600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>150900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>135300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>115400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>113400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>98600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>105700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>109000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>100800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>75400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E10" s="3">
         <v>161900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>222500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>219100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>154800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>254800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>207000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>145200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>224900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>174000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>137500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>92400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>116300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>76700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>127800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>97500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>57200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>93100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>73000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1224,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1307,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>352200</v>
+      </c>
+      <c r="E17" s="3">
         <v>287700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>491700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>365100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>351700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>260300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>349400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>285200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>207500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>294300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>224500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>285600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>195100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>196700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>146600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>203600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>168000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>173100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>178200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>158300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>130700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E18" s="3">
         <v>15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-43700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>93700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>70100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>24700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>17700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,185 +1617,192 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E21" s="3">
         <v>26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>71200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>76000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>78900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>34200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>28900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>30600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>23500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
@@ -1775,218 +1814,227 @@
         <v>800</v>
       </c>
       <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E23" s="3">
         <v>14500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>92200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>81100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>16500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>7100</v>
       </c>
       <c r="S24" s="3">
         <v>7100</v>
       </c>
       <c r="T24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>72900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>33500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>9700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2355,17 +2415,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2373,20 +2433,23 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2611,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>72900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>33500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>72900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>33500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,88 +3095,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E41" s="3">
         <v>167800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>234700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>312200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>233800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>253300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>234800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>127500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>118200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>80100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>71300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>60400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>53700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,328 +3259,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E43" s="3">
         <v>95600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>83300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>71200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>85900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>82700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>75900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>63000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>61900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>65400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>60400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>67200</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E44" s="3">
         <v>347000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>371400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>439400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>490000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>413000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>318900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>266000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>221700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>140100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>134600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>138800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>202400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>185700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>209200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>181400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>164300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>145400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>157700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>149400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>158500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>175100</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E45" s="3">
         <v>44500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>721900</v>
+      </c>
+      <c r="E46" s="3">
         <v>654900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>718900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>644700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>717000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>635900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>770200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>632200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>561200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>465700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>476500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>454700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>367400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>360500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>331800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>313000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>266400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>297000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>284600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>297300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>289900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>303000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,168 +3674,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E48" s="3">
         <v>179300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>174000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>112200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>112300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>116300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>120400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>81200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>80000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>78200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>74100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>72400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>71100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>71500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>73800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E49" s="3">
         <v>155100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>153700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>152400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>152100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>151400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>149600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>148400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>147200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>146400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>145900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>145800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>145700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>145100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>145000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>144700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>144300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>134300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>135400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>133700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>130300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>128600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4006,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>17300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>2500</v>
       </c>
       <c r="I52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2000</v>
       </c>
       <c r="N52" s="3">
         <v>2000</v>
       </c>
       <c r="O52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11000</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1085400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1006500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1076800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>983200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1055400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>969500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1096400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>945500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>864000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>733300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>737100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>712600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>627500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>666800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>629500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>559700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>540400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>495800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>514200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>502600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>510400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>502200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>516400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,102 +4319,106 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E57" s="3">
         <v>101700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>140800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>122800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>204100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>167400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>191300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>166100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>145700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>123600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>101900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>74400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>83800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>105500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>101500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>78200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>68700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>76900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>73500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>51600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
         <v>24400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>24600</v>
       </c>
       <c r="H58" s="3">
         <v>24600</v>
@@ -4294,43 +4427,43 @@
         <v>24600</v>
       </c>
       <c r="J58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="K58" s="3">
         <v>24500</v>
       </c>
       <c r="L58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="M58" s="3">
         <v>22700</v>
       </c>
       <c r="N58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="O58" s="3">
         <v>20800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>42100</v>
       </c>
       <c r="S58" s="3">
         <v>42100</v>
       </c>
       <c r="T58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="U58" s="3">
         <v>43600</v>
       </c>
       <c r="V58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="W58" s="3">
         <v>47100</v>
@@ -4341,8 +4474,8 @@
       <c r="Y58" s="3">
         <v>47100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>47100</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4350,328 +4483,343 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E59" s="3">
         <v>203700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>243600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>158100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>187800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>141400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>96900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>70800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>53400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>50600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>75000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>52100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>51900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>64500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>344900</v>
+      </c>
+      <c r="E60" s="3">
         <v>329800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>409000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>275600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>391400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>350100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>403700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>329900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>304000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>253000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>287800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>219600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>131200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>150600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>170300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>201100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>198200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>172500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>186000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>172600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>150600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>151900</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E61" s="3">
         <v>65700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>77800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>83600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>95700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>101700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>107800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>105500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>111000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>215800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>270800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>326300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>281700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>252700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>263300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>273800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>284400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>340700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>380800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>418000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>428600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E62" s="3">
         <v>68400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>69500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>79200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>79100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>58300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>498200</v>
+      </c>
+      <c r="E66" s="3">
         <v>464000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>550300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>432600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>555500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>523200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>578500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>505900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>479900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>412000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>448600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>489900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>458400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>535100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>507500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>471800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>476500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>460300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>485200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>539800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>567200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>581200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>592700</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E72" s="3">
         <v>279100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>268600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>296300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>250800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>204500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>178900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>106000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-96100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-147600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-181100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-189500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-194300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-215500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-237600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-240100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-265100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-281800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-300000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-296200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E76" s="3">
         <v>542600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>526500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>550700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>499900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>446400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>517800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>439600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>384100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>321300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>288400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>222600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>169000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>122000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>64000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-37200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-56800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-76200</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>72900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>33500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,46 +6212,47 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7700</v>
       </c>
       <c r="P83" s="3">
         <v>7700</v>
@@ -6063,40 +6261,43 @@
         <v>7700</v>
       </c>
       <c r="R83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>173100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-88600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>73300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>166700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>68500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-30000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>25300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>65600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-8400</v>
       </c>
       <c r="T91" s="3">
         <v>-8400</v>
       </c>
       <c r="U91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7003,11 +7236,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7035,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,145 +7517,151 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-107600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-53500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>45700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-37900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-51400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-27600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7424,95 +7672,101 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-66900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-211900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YETI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>YETI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,386 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>433600</v>
+      </c>
+      <c r="E8" s="3">
         <v>402600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>302800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>448000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>433600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>420000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>293600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>443100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>362600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>357700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>247600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>375800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>294600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>246900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>297600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>229100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>231700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>155400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>241200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>196100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>206300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>135300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>202100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>183000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>148400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E9" s="3">
         <v>187700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>281000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>211100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>138800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>120600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>135300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>115400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>113400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>98600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>105700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>78100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>109000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>100800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>75400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E10" s="3">
         <v>214900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>161900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>222500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>219100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>254800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>207000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>145200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>224900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>137500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>92400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>120100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>76700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>127800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>97500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>57200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>93100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>82200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>73000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1244,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1330,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>371700</v>
+      </c>
+      <c r="E17" s="3">
         <v>352200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>287700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>491700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>365100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>351700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>260300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>349400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>285200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>207500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>294300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>224500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>285600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>195100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>196700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>146600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>203600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>168000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>173100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>178200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>158300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>130700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E18" s="3">
         <v>50400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-43700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>33300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>93700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>70100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>24700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>17700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,194 +1651,201 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E21" s="3">
         <v>63400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>71200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>72400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>101700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>41100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>34200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>28900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>30600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>23500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
@@ -1817,224 +1857,233 @@
         <v>800</v>
       </c>
       <c r="M22" s="3">
+        <v>800</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E23" s="3">
         <v>50800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>92200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>29900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>14700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>16500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E24" s="3">
         <v>12800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>7100</v>
       </c>
       <c r="T24" s="3">
         <v>7100</v>
       </c>
       <c r="U24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E26" s="3">
         <v>38100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>45500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>62400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>11300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E27" s="3">
         <v>38100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>9700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2418,17 +2479,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2436,20 +2497,23 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2681,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E33" s="3">
         <v>38100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>33500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E35" s="3">
         <v>38100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>33500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>281400</v>
+      </c>
+      <c r="E41" s="3">
         <v>223100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>167800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>234700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>312200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>233800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>190300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>253300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>234800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>127500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>118200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>80100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>52100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>71300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>60400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>53700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,340 +3352,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E43" s="3">
         <v>131600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>95600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>79400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>83300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>71200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>82700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>75900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>63000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>59300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>61900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>65400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>60400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>67200</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>341300</v>
+      </c>
+      <c r="E44" s="3">
         <v>322000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>347000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>371400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>439400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>490000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>413000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>318900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>266000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>221700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>140100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>134600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>138800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>202400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>185700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>209200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>181400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>164300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>145400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>157700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>149400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>158500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>175100</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E45" s="3">
         <v>45200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>791300</v>
+      </c>
+      <c r="E46" s="3">
         <v>721900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>654900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>718900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>644700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>717000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>635900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>770200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>632200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>561200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>465700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>476500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>454700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>367400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>360500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>331800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>313000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>266400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>297000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>284600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>297300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>289900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>303000</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,174 +3782,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E48" s="3">
         <v>189500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>179700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>174000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>163000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>153700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>112300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>116300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>120400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>81200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>80000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>78200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>74100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>72400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>71100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>71500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>73800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>168400</v>
+      </c>
+      <c r="E49" s="3">
         <v>165200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>155100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>153700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>152400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>152100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>151400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>149600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>147200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>146500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>146400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>145900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>145800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>145700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>145100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>145000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>144700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>144300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>134300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>135400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>133700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>130300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>128600</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2500</v>
       </c>
       <c r="I52" s="3">
         <v>2500</v>
       </c>
       <c r="J52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2000</v>
       </c>
       <c r="O52" s="3">
         <v>2000</v>
       </c>
       <c r="P52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11000</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1155900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1085400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1006500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1076800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>983200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1055400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>969500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1096400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>945500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>864000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>733300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>737100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>712600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>627500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>666800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>629500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>559700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>540400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>495800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>514200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>502600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>510400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>502200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>516400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,108 +4450,112 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E57" s="3">
         <v>143400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>140800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>122800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>204100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>167400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>191300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>166100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>145700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>123600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>101900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>74400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>83800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>105500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>101500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>78200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>68700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>76900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>73500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>51600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40300</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>24600</v>
       </c>
       <c r="I58" s="3">
         <v>24600</v>
@@ -4430,43 +4564,43 @@
         <v>24600</v>
       </c>
       <c r="K58" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="L58" s="3">
         <v>24500</v>
       </c>
       <c r="M58" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="N58" s="3">
         <v>22700</v>
       </c>
       <c r="O58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="P58" s="3">
         <v>20800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>42100</v>
       </c>
       <c r="T58" s="3">
         <v>42100</v>
       </c>
       <c r="U58" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="V58" s="3">
         <v>43600</v>
       </c>
       <c r="W58" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="X58" s="3">
         <v>47100</v>
@@ -4477,8 +4611,8 @@
       <c r="Z58" s="3">
         <v>47100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
+      <c r="AA58" s="3">
+        <v>47100</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
@@ -4486,340 +4620,355 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E59" s="3">
         <v>195300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>243600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>158100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>187800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>141400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>96900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>70800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>53400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>50600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>75000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>52100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>51900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>64500</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>360800</v>
+      </c>
+      <c r="E60" s="3">
         <v>344900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>329800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>409000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>275600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>391400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>350100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>403700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>329900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>304000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>253000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>287800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>219600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>131200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>150600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>170300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>201100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>198200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>172500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>186000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>172600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>150600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>151900</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E61" s="3">
         <v>81100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>77800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>83600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>95700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>101700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>107800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>105500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>111000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>215800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>270800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>326300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>281700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>252700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>263300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>273800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>284400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>340700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>380800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>418000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>428600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E62" s="3">
         <v>72200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>69500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>79200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>79100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>58300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>517100</v>
+      </c>
+      <c r="E66" s="3">
         <v>498200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>464000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>550300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>432600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>555500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>523200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>578500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>505900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>479900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>412000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>448600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>489900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>458400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>535100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>507500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>471800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>476500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>460300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>485200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>539800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>567200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>581200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>592700</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E72" s="3">
         <v>317200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>279100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>268600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>296300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>250800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>204500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>178900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>106000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-96100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-147600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-181100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-189500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-194300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-215500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-237600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-240100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-265100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-281800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-300000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-296200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E76" s="3">
         <v>587200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>542600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>526500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>550700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>499900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>446400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>517800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>439600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>384100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>321300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>288400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>222600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>169000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>122000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>64000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-37200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-79000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-76200</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E81" s="3">
         <v>38100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>33500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,49 +6411,50 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7700</v>
       </c>
       <c r="Q83" s="3">
         <v>7700</v>
@@ -6264,40 +6463,43 @@
         <v>7700</v>
       </c>
       <c r="S83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E89" s="3">
         <v>75500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>173100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-88600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>73300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>166700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>68500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-30000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>58300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>25300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>72200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>21600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-8400</v>
       </c>
       <c r="U91" s="3">
         <v>-8400</v>
       </c>
       <c r="V91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-7500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-18800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7239,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7271,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,151 +7763,157 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-107600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-53500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>45700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-37900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7675,98 +7924,104 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E102" s="3">
         <v>55300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-66900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-211900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>45700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-61000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>19400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-9700</v>
       </c>
     </row>
